--- a/data/income_statement/2digits/size/71_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/71_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>71-Architectural and engineering activities; technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>71-Architectural and engineering activities; technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,257 +841,292 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1851074.95252</v>
+        <v>1673284.16546</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1937144.50766</v>
+        <v>1813295.5609</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2640741.56834</v>
+        <v>2485814.79222</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2676479.63098</v>
+        <v>2501210.45771</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3154864.01999</v>
+        <v>2923821.24838</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4398365.74116</v>
+        <v>4149753.1509</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5200844.13265</v>
+        <v>5314429.56713</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7384205.66795</v>
+        <v>6742725.0108</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10826572.73436</v>
+        <v>9812375.66491</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7092638.23475</v>
+        <v>6703817.45415</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7272181.283199999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6794411.38951</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10399548.639</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1734919.35479</v>
+        <v>1581187.27188</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1830994.29652</v>
+        <v>1719035.25627</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2484197.76626</v>
+        <v>2342668.03647</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2377330.25275</v>
+        <v>2287063.67855</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2862596.25703</v>
+        <v>2681658.78034</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3648658.73675</v>
+        <v>3495727.95654</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4590817.79825</v>
+        <v>4738320.830469999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6679136.86646</v>
+        <v>6149446.59041</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9738684.427510001</v>
+        <v>8942546.533950001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6393620.467530001</v>
+        <v>6012419.80957</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6574168.87507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6166268.31885</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9334049.722999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>73873.51194</v>
+        <v>61805.56388</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>67453.53359000001</v>
+        <v>61261.60877</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>106331.06223</v>
+        <v>94257.19989</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>236640.58336</v>
+        <v>162037.18729</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>224708.3933</v>
+        <v>182975.77552</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>657097.79545</v>
+        <v>598002.5523099999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>568954.7200699999</v>
+        <v>554875.4296</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>617586.95453</v>
+        <v>529992.87875</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>779141.52827</v>
+        <v>582392.45148</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>655252.5773100001</v>
+        <v>655002.97384</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>635665.3801299999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>579059.01346</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>915835.589</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>42282.08579</v>
+        <v>30291.3297</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>38696.67755</v>
+        <v>32998.69586</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>50212.73984999999</v>
+        <v>48889.55586</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>62508.79487</v>
+        <v>52109.59187</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>67559.36966</v>
+        <v>59186.69252</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>92609.20896</v>
+        <v>56022.64204999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>41071.61433</v>
+        <v>21233.30706</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>87481.84696000001</v>
+        <v>63285.54164</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>308746.77858</v>
+        <v>287436.67948</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>43765.18990999999</v>
+        <v>36394.67073999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>62347.028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49084.0572</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>149663.327</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1098.14957</v>
+        <v>1062.70036</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2207.79015</v>
+        <v>2093.55096</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3234.32482</v>
+        <v>2141.54199</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>67843.77620000001</v>
+        <v>3755.08979</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4281.868949999999</v>
+        <v>4269.185310000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18694.47456</v>
+        <v>18320.50796</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>74258.20598</v>
+        <v>72535.52761</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>91300.6781</v>
+        <v>25556.49418</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>97258.54897</v>
+        <v>84392.82979999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>27094.97477</v>
+        <v>22782.28536</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>38712.20701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18312.69815</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33449.171</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1081.20108</v>
+        <v>1062.70036</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2173.1262</v>
+        <v>2080.06573</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3197.6347</v>
+        <v>2118.73319</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>51076.15524</v>
+        <v>3741.70524</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4264.351799999999</v>
+        <v>4251.66816</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6671.2219</v>
+        <v>6339.261439999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>74044.99605</v>
+        <v>72498.84662000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>89670.40282999999</v>
+        <v>24610.57407</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>83593.31771999999</v>
+        <v>75895.61301999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21163.79317</v>
+        <v>16851.10376</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>35530.8454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15682.27679</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>31190.487</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6.89849</v>
+        <v>0</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>34.66395</v>
+        <v>13.48523</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>35.8209</v>
+        <v>22.8088</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>13.38455</v>
@@ -1199,40 +1135,45 @@
         <v>17.51715</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>42.00614</v>
+        <v>0</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>1.6943</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>828.20571</v>
+        <v>781.4839899999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>8730.12621</v>
+        <v>6392.26372</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>3882.84764</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>292.17709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.5</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>925.502</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0.86922</v>
+        <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>16754.23641</v>
+        <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>0</v>
@@ -1241,109 +1182,124 @@
         <v>11981.24652</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>211.51563</v>
+        <v>34.98669</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>802.0695599999999</v>
+        <v>164.43612</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4935.10504</v>
+        <v>2104.95306</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>2048.33396</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2889.18452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2624.92136</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1333.182</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1849976.80295</v>
+        <v>1672221.4651</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1934936.71751</v>
+        <v>1811202.00994</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2637507.24352</v>
+        <v>2483673.25023</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2608635.85478</v>
+        <v>2497455.36792</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3150582.15104</v>
+        <v>2919552.06307</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4379671.266600001</v>
+        <v>4131432.64294</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5126585.92667</v>
+        <v>5241894.03952</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7292904.98985</v>
+        <v>6717168.51662</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10729314.18539</v>
+        <v>9727982.835110001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7065543.25998</v>
+        <v>6681035.16879</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7233469.07619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6776098.691360001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10366099.468</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1514480.31463</v>
+        <v>1392126.72716</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1600826.22183</v>
+        <v>1509512.41388</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2076436.2633</v>
+        <v>1953922.27205</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2002633.95257</v>
+        <v>1914702.5912</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2434673.06116</v>
+        <v>2280350.96569</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3529329.457</v>
+        <v>3419164.18707</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4150304.39893</v>
+        <v>4350209.67747</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6033783.154180001</v>
+        <v>5639543.228680001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8777503.00948</v>
+        <v>7995690.29509</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5585326.455030001</v>
+        <v>5299074.303030001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5479918.514889999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5142584.66654</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8181860.136</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3125.93372</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4572.14649</v>
+        <v>4039.69278</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>16738.75912</v>
@@ -1352,229 +1308,259 @@
         <v>22025.31066</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>68253.15565999999</v>
+        <v>68250.89727</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>24694.48538</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>101406.50677</v>
+        <v>101379.08926</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>28080.10862</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>312442.25356</v>
+        <v>265319.62287</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4965.658969999999</v>
+        <v>983.42137</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>265313.38112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>249930.30259</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>238309.993</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>54615.49632</v>
+        <v>54177.48789</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>8607.97777</v>
+        <v>3090.27612</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>13645.10365</v>
+        <v>4926.312910000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>67811.76076</v>
+        <v>48214.34025</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>104446.76425</v>
+        <v>84224.95263000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>730954.94355</v>
+        <v>709160.8659399999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>749636.79654</v>
+        <v>698666.71425</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>858427.84722</v>
+        <v>762587.8738600001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1799303.36795</v>
+        <v>1671945.13343</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>375031.45573</v>
+        <v>319985.50245</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>133788.04563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49551.31032</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1034056.083</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1453693.06281</v>
+        <v>1334822.09635</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1569623.46846</v>
+        <v>1502382.44498</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2030942.81284</v>
+        <v>1932257.20002</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1910682.48428</v>
+        <v>1843841.10867</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2261642.51855</v>
+        <v>2127875.11579</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2765691.56638</v>
+        <v>2677320.37406</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3294089.59325</v>
+        <v>3545113.37159</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5143826.166780001</v>
+        <v>4848848.584229999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6632694.03755</v>
+        <v>6031039.03951</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5086975.13383</v>
+        <v>4859751.172709999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5072411.73933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4843085.09821</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6907350.506</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3045.82178</v>
+        <v>1.2092</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>18022.62911</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>15109.58769</v>
+        <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2114.39687</v>
+        <v>621.83162</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>330.6227</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>7988.46169</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5171.50237</v>
+        <v>5050.50237</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3449.031559999999</v>
+        <v>26.66197</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>33063.35042</v>
+        <v>27386.49928</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>118354.2065</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8405.348810000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.95542</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2143.554</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>335496.48832</v>
+        <v>280094.73794</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>334110.49568</v>
+        <v>301689.59606</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>561070.98022</v>
+        <v>529750.97818</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>606001.9022100001</v>
+        <v>582752.7767200001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>715909.08988</v>
+        <v>639201.0973800001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>850341.8096</v>
+        <v>712268.4558699999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>976281.52774</v>
+        <v>891684.3620500001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1259121.83567</v>
+        <v>1077625.28794</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1951811.17591</v>
+        <v>1732292.54002</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1480216.80495</v>
+        <v>1381960.86576</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1753550.5613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1633514.02482</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2184239.332</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>263058.86312</v>
+        <v>212118.41708</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>246392.62085</v>
+        <v>186689.21819</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>345659.34652</v>
+        <v>287311.90955</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>421227.50022</v>
+        <v>326188.72909</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>485724.54825</v>
+        <v>325463.92397</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>524945.86769</v>
+        <v>342295.50879</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>643916.79082</v>
+        <v>406897.62152</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>875708.70201</v>
+        <v>452001.83276</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1202986.38001</v>
+        <v>733529.07961</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>671306.91602</v>
+        <v>600614.52786</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>864634.67446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>788894.7604400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>957317.4790000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2325.84505</v>
+        <v>2269.24292</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>3910.79113</v>
@@ -1589,13 +1575,13 @@
         <v>51833.04985</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>29718.79252</v>
+        <v>29705.79252</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>38003.21089</v>
+        <v>37128.72204</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>28408.76421</v>
+        <v>27835.4492</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>212458.19491</v>
@@ -1604,313 +1590,353 @@
         <v>119706.55034</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>162405.32584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>160906.38157</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>186943.333</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3274.55501</v>
+        <v>3154.3694</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4866.273639999999</v>
+        <v>2789.74475</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10744.62147</v>
+        <v>8418.488079999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7646.54367</v>
+        <v>6613.069689999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8490.607599999999</v>
+        <v>6148.344139999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15570.64147</v>
+        <v>10888.73895</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14553.5608</v>
+        <v>11863.13642</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>20273.6659</v>
+        <v>14280.35463</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>47787.09686999999</v>
+        <v>30310.48706</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>21260.83142</v>
+        <v>20991.50601</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22657.4017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16587.63571</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26724.117</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>257458.46306</v>
+        <v>206694.80476</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>237615.55608</v>
+        <v>179988.68231</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>310586.53922</v>
+        <v>254565.23564</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>354614.06483</v>
+        <v>260608.76768</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>425400.8908</v>
+        <v>267482.52998</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>479656.4337000001</v>
+        <v>301700.97732</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>591360.01913</v>
+        <v>357905.76306</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>827026.2718999999</v>
+        <v>409886.02893</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>942741.08823</v>
+        <v>490760.39764</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>530339.53426</v>
+        <v>459916.47151</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>679571.9469199999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>611400.7431600001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>743650.029</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>72437.62520000001</v>
+        <v>67976.32085999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>87717.87483</v>
+        <v>115000.37787</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>215411.6337</v>
+        <v>242439.06863</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>184774.40199</v>
+        <v>256564.04763</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>230184.54163</v>
+        <v>313737.17341</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>325395.94191</v>
+        <v>369972.9470800001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>332364.73692</v>
+        <v>484786.74053</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>383413.1336600001</v>
+        <v>625623.4551799999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>748824.7959000001</v>
+        <v>998763.4604099999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>808909.88893</v>
+        <v>781346.3379</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>888915.8868399999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>844619.2643799999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1226921.853</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>465283.5305399999</v>
+        <v>190246.86252</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>459852.57004</v>
+        <v>175725.27474</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>669923.5576000001</v>
+        <v>214713.77642</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>461427.41237</v>
+        <v>190879.37783</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2557112.81384</v>
+        <v>385964.05992</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1713558.74766</v>
+        <v>432907.43583</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2747789.04335</v>
+        <v>641645.07189</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2362585.50114</v>
+        <v>522375.9845</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3283018.31542</v>
+        <v>1031666.21107</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11110117.51333</v>
+        <v>702120.50627</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1331090.38066</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>554283.52196</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>975480.959</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>23843.00344</v>
+        <v>5792.38165</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>62114.62149</v>
+        <v>326.66032</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>34447.54816</v>
+        <v>273.51676</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>83820.15722999998</v>
+        <v>8919.541859999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>118103.5548</v>
+        <v>5161.58693</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>264785.18337</v>
+        <v>7474.589910000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>183572.06314</v>
+        <v>47056.60907999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>212328.80046</v>
+        <v>7397.289809999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>216080.16714</v>
+        <v>9111.439329999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>180859.52473</v>
+        <v>17616.42394</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>214728.78882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>12307.24037</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3026.618</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1771.07533</v>
+        <v>1240.54771</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>1179.64513</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1466.58349</v>
+        <v>1427.3003</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1473.26974</v>
+        <v>1472.63365</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1560724.07364</v>
+        <v>4201.98017</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>644385.01379</v>
+        <v>9982.61543</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1150710.25153</v>
+        <v>13948.35654</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>627416.2293400001</v>
+        <v>14166.29332</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>178075.11069</v>
+        <v>41797.62685</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>115448.5338</v>
+        <v>8056.67787</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>169927.86958</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8309.4864</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>97403.69</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>31597.29186</v>
+        <v>20191.12378</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>32088.55284</v>
+        <v>13861.82125</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>45516.85217</v>
+        <v>17811.00969</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>57374.72519</v>
+        <v>20303.41566</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>58242.2547</v>
+        <v>18609.26871</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>41802.87279</v>
+        <v>23967.60228</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>77628.75205</v>
+        <v>38648.07885</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>111460.76149</v>
+        <v>43015.09719</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>216923.50822</v>
+        <v>70840.61764</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>192926.98091</v>
+        <v>85624.08854000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>258645.80939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>129971.02113</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>124340.771</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1005.20817</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>30340.92842</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>41.20926</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>56.74583000000001</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>11.64963</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1748.71934</v>
+        <v>996.30265</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>641.05701</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5913.7926</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1070.04874</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0.4033</v>
@@ -1918,38 +1944,43 @@
       <c r="M29" s="48" t="n">
         <v>518.11382</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9300.619000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2664.94307</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1688.81424</v>
+        <v>1680.87956</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6708.21382</v>
+        <v>6661.28381</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>9521.055349999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7362.31935</v>
+        <v>6079.15185</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6129.69094</v>
+        <v>5142.63319</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5862.229020000001</v>
+        <v>6058.20738</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9897.433939999999</v>
+        <v>7129.49836</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>13367.61241</v>
+        <v>11508.70748</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>6641.84877</v>
@@ -1957,95 +1988,110 @@
       <c r="M30" s="48" t="n">
         <v>4383.66517</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>18186.81</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>41798.96828</v>
+        <v>18.28147</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2985.74781</v>
+        <v>2966.16109</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>27548.66525</v>
+        <v>4626.95784</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>151.82883</v>
+        <v>141.73295</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>180116.9538</v>
+        <v>186.50772</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>377.69176</v>
+        <v>300.34578</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4818.63528</v>
+        <v>4715.60913</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>71775.05736000001</v>
+        <v>551.00996</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>983678.00959</v>
+        <v>1176.73407</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>623.0952900000001</v>
+        <v>289.63613</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>22932.36195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>604.0340500000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>872.545</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>323943.30865</v>
+        <v>150631.84403</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>261737.7454</v>
+        <v>136769.17098</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>510083.42525</v>
+        <v>162719.18001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>228092.64126</v>
+        <v>121241.00832</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>556611.61869</v>
+        <v>318194.0397</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>664245.2776700001</v>
+        <v>352659.97326</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1202445.68616</v>
+        <v>474910.9862100001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1216757.17112</v>
+        <v>384547.5707999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1499357.4187</v>
+        <v>800456.3263199999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1513015.63723</v>
+        <v>470942.02855</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>525892.73195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>296034.49355</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>629461.862</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>166.56502</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2066,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>6.56021</v>
+        <v>5.24301</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>67.44150999999999</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>12.72498</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>38647.00676</v>
+        <v>9707.740810000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>67549.94968999999</v>
+        <v>18940.93641</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>44111.0602</v>
+        <v>21194.52801</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>80928.76483</v>
+        <v>29271.76593</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>75940.38923</v>
+        <v>33531.52484</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>90084.298</v>
+        <v>32383.37333</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>122110.36916</v>
+        <v>56307.2247</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>107036.25483</v>
+        <v>65569.22506</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>174453.37972</v>
+        <v>96763.01637</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9100534.04779</v>
+        <v>112881.95766</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>134061.03998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>102155.46747</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>92888.04399999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>306596.67434</v>
+        <v>130492.81727</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>307238.42016</v>
+        <v>159225.96409</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>992569.7748400001</v>
+        <v>218522.59652</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>276809.72413</v>
+        <v>146123.44451</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>729531.8374</v>
+        <v>360767.15902</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>684789.31694</v>
+        <v>394309.93052</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1096411.49087</v>
+        <v>565968.92033</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1226629.07601</v>
+        <v>429944.9355</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1720710.85728</v>
+        <v>947917.46768</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19099278.00177</v>
+        <v>586221.33413</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>654513.5268399999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>463289.43451</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>722705.5919999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2080.18667</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>49.29961</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>101.36917</v>
+        <v>39.80932</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>0.70101</v>
+        <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0.47308</v>
+        <v>0</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>84.14095</v>
+        <v>0.37495</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>660</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1452.31669</v>
+        <v>329.25527</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>299.60658</v>
+        <v>297.78993</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>0.64361</v>
@@ -2230,38 +2296,43 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>28.554</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>189.33003</v>
+        <v>177.59224</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1232.91372</v>
+        <v>1222.18027</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7510.526</v>
+        <v>7122.34615</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>12780.24452</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9926.694</v>
+        <v>7495.070039999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10421.00793</v>
+        <v>7136.14682</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6187.3764</v>
+        <v>6175.98231</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>23033.16676</v>
+        <v>6867.18772</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>39733.12417</v>
+        <v>10838.80234</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>11053.90328</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>13833.85123</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>6311.14</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,76 +2358,86 @@
         <v>303.63</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1.1244</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>11518.22455</v>
+        <v>0.1645</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>762.20977</v>
+        <v>753.53836</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1644.76043</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>17622.47884</v>
+        <v>17540.94052</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.26493</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1784.31596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1758</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>290554.07796</v>
+        <v>126643.81894</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>279271.08772</v>
+        <v>148635.65377</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>958378.7832000001</v>
+        <v>204766.15575</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>249725.76374</v>
+        <v>131726.00677</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>676216.5188600001</v>
+        <v>348892.7011</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>653183.99835</v>
+        <v>379796.80846</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1042958.87338</v>
+        <v>545739.36445</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1149815.21154</v>
+        <v>408764.71708</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1615890.03996</v>
+        <v>894095.6140999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1451416.17898</v>
+        <v>541843.5731800001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>625921.40619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>436647.78204</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>692523.872</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>12.72498</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13760.3547</v>
+        <v>1591.21942</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>26230.20511</v>
+        <v>8913.216050000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>26577.97207</v>
+        <v>6594.2853</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>14271.05066</v>
+        <v>1585.22902</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>31869.92691</v>
+        <v>4379.223379999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21099.55965</v>
+        <v>7375.99023</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>45843.03132</v>
+        <v>12640.03521</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>50683.62059</v>
+        <v>12339.015</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>47165.60773</v>
+        <v>25144.32079</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17636807.01097</v>
+        <v>33323.21406</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12973.95346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12807.62544</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23842.026</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>167276.71461</v>
+        <v>65326.69325</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>121031.70616</v>
+        <v>48244.09158</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>157152.66052</v>
+        <v>53627.45695</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>87584.95949000001</v>
+        <v>54140.51392</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>944976.48765</v>
+        <v>77251.25869</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>996013.8651300002</v>
+        <v>43935.38686</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1125044.0146</v>
+        <v>83681.39728</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1498394.19639</v>
+        <v>89627.84736</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1849236.46166</v>
+        <v>161623.4356</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1732927.39187</v>
+        <v>103349.3207</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>508135.1369500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>179845.12776</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>98520.90399999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>97834.97253999999</v>
+        <v>50634.75439</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>61014.53633</v>
+        <v>37943.56298</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>68485.87679000001</v>
+        <v>43798.99695</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>70908.01003</v>
+        <v>43944.99232</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>95581.4804</v>
+        <v>63219.26201000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>89896.23346999999</v>
+        <v>35983.742</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>164260.18344</v>
+        <v>75232.71364</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>228260.78512</v>
+        <v>82492.8851</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1719940.38532</v>
+        <v>147112.66311</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1586228.31459</v>
+        <v>84418.10212</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>430471.29825</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>102181.28906</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>96055.701</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>69441.74206999999</v>
+        <v>14691.93886</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>60017.16983</v>
+        <v>10300.5286</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>88666.78373000001</v>
+        <v>9828.459999999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>16676.94946</v>
+        <v>10195.5216</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>849395.00725</v>
+        <v>14031.99668</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>906117.6316600001</v>
+        <v>7951.644859999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>960783.8311599999</v>
+        <v>8448.683640000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1270133.41127</v>
+        <v>7134.962259999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>129296.07634</v>
+        <v>14510.77249</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>146699.07728</v>
+        <v>18931.21858</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>77663.83870000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2465.203</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>63847.76679</v>
+        <v>62403.67286000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>119300.31855</v>
+        <v>83255.59694</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-264387.24406</v>
+        <v>185002.79158</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>281807.13074</v>
+        <v>247179.46703</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1112789.03042</v>
+        <v>261682.81562</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>358151.5075</v>
+        <v>364635.06553</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>858698.2747999999</v>
+        <v>476781.49481</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>20975.36239999998</v>
+        <v>628426.6568199999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>461895.79238</v>
+        <v>920888.7682</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-8913177.991379999</v>
+        <v>793896.1893399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1057357.60371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>755768.2240699999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1381176.316</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8116.43052</v>
+        <v>5195.46946</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16184.39455</v>
+        <v>5570.87811</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>83690.43658999998</v>
+        <v>46690.22189</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>44082.92447</v>
+        <v>23633.97824</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>57665.92927</v>
+        <v>12207.11293</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>53182.48729</v>
+        <v>14536.84799</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>92041.94511</v>
+        <v>15793.7023</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>319255.75032</v>
+        <v>24875.8916</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>198219.68766</v>
+        <v>40481.20127000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>138744.6904</v>
+        <v>29612.05857</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>83552.65234999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>80774.77220000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>93120.71000000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2767.75583</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>941.16824</v>
+        <v>912.8043899999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>577.94646</v>
+        <v>326.62878</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1423.62386</v>
+        <v>1341.74138</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>271.21501</v>
+        <v>111.70748</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1058.01499</v>
+        <v>1043.01499</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>185.04433</v>
+        <v>251.79819</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1971.34491</v>
+        <v>1778.6865</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>871.07632</v>
+        <v>869.74378</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>500.52877</v>
+        <v>500.5251</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3651.60207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3649.40641</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>30289.899</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5348.67469</v>
+        <v>2427.71363</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15243.22631</v>
+        <v>4658.07372</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>83112.49013000001</v>
+        <v>46363.59311</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>42659.30061</v>
+        <v>22292.23686</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57394.71426000001</v>
+        <v>12095.40545</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>52124.47229999999</v>
+        <v>13493.833</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>91856.90078</v>
+        <v>15541.90411</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>317284.40541</v>
+        <v>23097.2051</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>197348.61134</v>
+        <v>39611.45748999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>138244.16163</v>
+        <v>29111.53347</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>79901.05028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>77125.36579</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>62830.811</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5815.58525</v>
+        <v>3104.6917</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13291.94256</v>
+        <v>3478.5272</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>75279.36215999999</v>
+        <v>29598.20239</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15958.15991</v>
+        <v>7052.521600000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7268.5385</v>
+        <v>4942.66336</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>44217.57638000001</v>
+        <v>14736.94387</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>64324.5661</v>
+        <v>14790.50372</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>67352.63025</v>
+        <v>39772.89579</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>54955.81719</v>
+        <v>18218.78206</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>105203.71812</v>
+        <v>83005.06153000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>70159.70103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>39712.33799</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>56060.71</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>35.448</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1913.87549</v>
+        <v>1527.12631</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1676.31577</v>
+        <v>1355.3678</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1393.10443</v>
+        <v>860.69979</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2309.58976</v>
+        <v>1178.80731</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2320.05159</v>
+        <v>1675.62322</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6465.07988</v>
+        <v>2246.62264</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6452.30508</v>
+        <v>2615.77375</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6470.2878</v>
+        <v>5892.63002</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3245.88501</v>
+        <v>2282.28785</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>7066.77318</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4933.00588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4932.72087</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17744.651</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3866.26176</v>
+        <v>1577.56539</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11615.62679</v>
+        <v>2123.1594</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>73886.25773</v>
+        <v>28737.5026</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13648.57015</v>
+        <v>5873.71429</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4445.829279999999</v>
+        <v>2764.38251</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>36889.38219999999</v>
+        <v>11627.20693</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>56652.92823999999</v>
+        <v>10955.39719</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>58105.0125</v>
+        <v>31102.93582</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>51709.93218</v>
+        <v>15936.49421</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>98136.94494</v>
+        <v>75938.28834999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>65226.69515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34779.61712</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>38316.059</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>66148.61206</v>
+        <v>64494.45062</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>122192.77054</v>
+        <v>85347.94785</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-255976.16963</v>
+        <v>202094.81108</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>309931.8953</v>
+        <v>263760.92367</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1163186.42119</v>
+        <v>268947.26519</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>367116.41841</v>
+        <v>364434.96965</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>886415.6538099999</v>
+        <v>477784.69339</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>272878.48247</v>
+        <v>613529.65263</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>605159.6628500001</v>
+        <v>943151.18741</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-8879637.019100001</v>
+        <v>740503.18638</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1070750.55503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>796830.65828</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1418236.316</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>16379.96901</v>
+        <v>5580.586</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13567.76449</v>
+        <v>12215.25514</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>35102.89761</v>
+        <v>32228.86399</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>30996.46095</v>
+        <v>29210.07282</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>36398.39565999999</v>
+        <v>34330.05146</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>82717.9789</v>
+        <v>67549.87821000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>86145.19486</v>
+        <v>80064.17767</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>107723.44683</v>
+        <v>80278.23196999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>229893.37182</v>
+        <v>148969.74898</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>212135.743</v>
+        <v>145634.74367</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>223314.41468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>190275.75466</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>274839.367</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>49768.64305</v>
+        <v>58913.86462000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>108625.00605</v>
+        <v>73132.69271</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-291079.06724</v>
+        <v>169865.94709</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>278935.43435</v>
+        <v>234550.85085</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1126788.02553</v>
+        <v>234617.21373</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>284398.43951</v>
+        <v>296885.09144</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>800270.45895</v>
+        <v>397720.51572</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>165155.03564</v>
+        <v>533251.4206599999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>375266.29103</v>
+        <v>794181.43843</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-9091772.7621</v>
+        <v>594868.4427100001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>847436.14035</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>606554.90362</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1143396.949</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>